--- a/biology/Botanique/Eucalyptus_gunnii/Eucalyptus_gunnii.xlsx
+++ b/biology/Botanique/Eucalyptus_gunnii/Eucalyptus_gunnii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eucalyptus gunnii est une espèce d’eucalyptus rustiques. Elle est originaire de Tasmanie. Cet arbre est communément appelé Eucalyptus à feuilles rondes, Cider gum (Gommier cidre) en anglais ou Gommier de Gunn, et est utilisé, entre autres, pour parfumer de nombreux produits ménagers.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet eucalyptus à croissance très rapide (1 à 1,5 m par an les cinq premières années) peut atteindre 25 m de haut et 15 m de large. Son port est touffu, dressé puis étalé. L'écorce, lisse, vert blanchâtre, se détache tous les ans, en laissant apparaître la nouvelle écorce vert jaunâtre à grisâtre, parfois teintée de rose. Il forme souvent des troncs multiples.
 Son beau feuillage bleu argenté est persistant toute l'année (sauf en cas de grands froids). Les jeunes feuilles aromatiques, vert grisé, presque rondes, s'allongent en vieillissant. Elles dégagent des huiles essentielles lorsqu’on les froisse ou qu’on les brûle.
@@ -545,7 +559,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il pousse en plein soleil sur sols acides, bien alimentés en eau et fait partie des eucalyptus les plus rustiques avec Eucalyptus pauciflora et Eucalyptus parvula.
 Certains croisements entre ces espèces tels que Eucalyptus gundal peuvent allier vitesse de croissance et résistance au froid.
@@ -581,7 +597,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Eucalyptus gunnii est une plante mellifère, médicinale et aromatique. Écorce remarquable appréciée des frelons pour construire leur nid. Ils peuvent aussi se nourrir de la sève sucrée en automne. Eucalyptus gunnii est également appelé Gommier cidre car les colons Tasmaniens ont essayé de faire de l'alcool, en faisant fermenter sa sève sucrée (mannose). Mais le résultat ne fut pas convaincant.
 On peut utiliser cet eucalyptus pour assécher des zones marécageuses mais il prospère aussi en sol sec.
@@ -615,9 +633,11 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (19 janvier 2020)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (19 janvier 2020) :
 sous-espèce Eucalyptus gunnii subsp. divaricata (McAulay &amp; Brett) B.M.Potts
 sous-espèce Eucalyptus gunnii subsp. gunnii
 variété Eucalyptus gunnii var. acervula H. Deane &amp; Maiden
@@ -655,7 +675,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Son épithète spécifique, gunnii, lui a été donnée en l'honneur de Ronald Campbell Gunn (d) (1808-1881), botaniste et homme politique australien.
 </t>
